--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIBugakov\Documents\Pix\LINQ\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIBugakov\Documents\GitHub\LINQ\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Имя</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>PathToOutputFile</t>
+  </si>
+  <si>
+    <t>QLINK_pathToOutputData</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2273,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2379,6 +2385,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="7"/>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIBugakov\Documents\GitHub\LINQ\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIBugakov\Desktop\LINQ-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Имя</t>
   </si>
@@ -98,9 +98,6 @@
     <t>BIT002_Email_Credentials</t>
   </si>
   <si>
-    <t>PathToExcelFile</t>
-  </si>
-  <si>
     <t>QLINK_pathToInputData</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>QLINK_pathToOutputData</t>
+  </si>
+  <si>
+    <t>PathToInputExcelFiles</t>
   </si>
 </sst>
 </file>
@@ -641,22 +641,12 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2273,7 +2263,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2335,71 +2325,71 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
